--- a/配置表/Item.xlsx
+++ b/配置表/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,9 +392,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
-  <si>
-    <t>物品主键枚举类型</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemDescribtion</t>
+  </si>
+  <si>
+    <t>ItemImage</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>##</t>
   </si>
   <si>
     <t>物品名字</t>
@@ -407,15 +437,6 @@
   </si>
   <si>
     <t>初始数量</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Sprite</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>id</t>
@@ -1842,136 +1863,153 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="28.0181818181818" customWidth="1"/>
-    <col min="3" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="6" width="30.5363636363636" customWidth="1"/>
-    <col min="7" max="7" width="10"/>
+    <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="28.0181818181818" customWidth="1"/>
+    <col min="4" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="7" width="30.5363636363636" customWidth="1"/>
+    <col min="8" max="8" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A2" s="5"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:12">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:13">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="19"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="19"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A5" s="6"/>
-      <c r="B5" s="17"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B5" s="6"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A6" s="6"/>
-      <c r="B6" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B7" s="6"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A8" s="6"/>
-      <c r="B8" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B8" s="6"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:13">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1979,13 +2017,11 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="17"/>
       <c r="L9" s="20"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="17"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:13">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1993,13 +2029,11 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="17"/>
       <c r="L10" s="20"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:12">
-      <c r="A11" s="17"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:13">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2007,13 +2041,11 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="17"/>
       <c r="L11" s="20"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:12">
-      <c r="A12" s="17"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:13">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -2021,13 +2053,11 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="17"/>
       <c r="L12" s="20"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:12">
-      <c r="A13" s="17"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:13">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2035,386 +2065,385 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="17"/>
       <c r="L13" s="20"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:12">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:13">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="K14" s="20"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
       <c r="L14" s="20"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:12">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:13">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="K15" s="20"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
       <c r="L15" s="20"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:12">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:13">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="K16" s="20"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
       <c r="L16" s="20"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:12">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:13">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="K17" s="20"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
       <c r="L17" s="20"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:12">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:13">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="K18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
       <c r="L18" s="20"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:12">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:13">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-      <c r="K19" s="20"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
       <c r="L19" s="20"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:12">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:13">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="K20" s="20"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
       <c r="L20" s="20"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:12">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:13">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="K21" s="20"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="17"/>
       <c r="L21" s="20"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:12">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:13">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="K22" s="20"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="17"/>
       <c r="L22" s="20"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:12">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:13">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="K23" s="20"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="17"/>
       <c r="L23" s="20"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:12">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:13">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="K24" s="20"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
       <c r="L24" s="20"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:12">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:13">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="K25" s="20"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17"/>
       <c r="L25" s="20"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:12">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:13">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="17"/>
-      <c r="K26" s="20"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="17"/>
       <c r="L26" s="20"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:12">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:13">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="K27" s="20"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="17"/>
       <c r="L27" s="20"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:12">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:13">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="17"/>
-      <c r="K28" s="20"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="17"/>
       <c r="L28" s="20"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:12">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:13">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="17"/>
-      <c r="K29" s="20"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="17"/>
       <c r="L29" s="20"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:12">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:13">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="17"/>
-      <c r="K30" s="20"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="17"/>
       <c r="L30" s="20"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:12">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:13">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="17"/>
-      <c r="K31" s="20"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="17"/>
       <c r="L31" s="20"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:12">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:13">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="17"/>
-      <c r="K32" s="20"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="17"/>
       <c r="L32" s="20"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:12">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:13">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="17"/>
-      <c r="K33" s="20"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="17"/>
       <c r="L33" s="20"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:12">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:13">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="17"/>
-      <c r="K34" s="20"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="17"/>
       <c r="L34" s="20"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:12">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:13">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="17"/>
-      <c r="K35" s="20"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="17"/>
       <c r="L35" s="20"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:12">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:13">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="17"/>
-      <c r="K36" s="20"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="17"/>
       <c r="L36" s="20"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:12">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:13">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="17"/>
-      <c r="K37" s="20"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="17"/>
       <c r="L37" s="20"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:12">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:13">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="17"/>
-      <c r="K38" s="20"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="17"/>
       <c r="L38" s="20"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:12">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="17"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:13">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="K39" s="20"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="17"/>
       <c r="L39" s="20"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:12">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
+      <c r="M39" s="20"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:13">
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
-      <c r="K40" s="20"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17"/>
       <c r="L40" s="20"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:12">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="17"/>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:13">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-      <c r="K41" s="20"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="17"/>
       <c r="L41" s="20"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:12">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="17"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:13">
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-      <c r="K42" s="20"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="17"/>
       <c r="L42" s="20"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:12">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="17"/>
+      <c r="M42" s="20"/>
+    </row>
+    <row r="43" ht="16.5" spans="2:13">
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-      <c r="K43" s="20"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="17"/>
       <c r="L43" s="20"/>
-    </row>
-    <row r="44" ht="16.5" spans="1:12">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="17"/>
+      <c r="M43" s="20"/>
+    </row>
+    <row r="44" ht="16.5" spans="2:13">
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-      <c r="K44" s="20"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="17"/>
       <c r="L44" s="20"/>
-    </row>
-    <row r="45" ht="16.5" spans="1:12">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" ht="16.5" spans="2:13">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
-      <c r="K45" s="20"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="17"/>
       <c r="L45" s="20"/>
-    </row>
-    <row r="46" ht="16.5" spans="1:12">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" ht="16.5" spans="2:13">
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="17"/>
-      <c r="K46" s="20"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="17"/>
       <c r="L46" s="20"/>
-    </row>
-    <row r="47" ht="16.5" spans="1:12">
-      <c r="A47" s="18"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" ht="16.5" spans="2:13">
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="18"/>
-      <c r="K47" s="20"/>
+      <c r="G47" s="18"/>
       <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7 G10">
+  <conditionalFormatting sqref="H7 H10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2436,206 +2465,206 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2703,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2748,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2795,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2842,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2889,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2936,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2983,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/Item.xlsx
+++ b/配置表/Item.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -437,6 +437,24 @@
   </si>
   <si>
     <t>初始数量</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>id</t>
@@ -1866,7 +1884,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1966,10 +1984,14 @@
       <c r="M4" s="19"/>
     </row>
     <row r="5" s="11" customFormat="1" ht="16.5" spans="2:11">
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="17">
+        <v>1000</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -1977,10 +1999,14 @@
       <c r="K5" s="17"/>
     </row>
     <row r="6" s="11" customFormat="1" ht="16.5" spans="2:11">
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17">
+        <v>100</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -1988,10 +2014,14 @@
       <c r="K6" s="17"/>
     </row>
     <row r="7" s="11" customFormat="1" ht="16.5" spans="2:11">
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -1999,10 +2029,14 @@
       <c r="K7" s="17"/>
     </row>
     <row r="8" s="11" customFormat="1" ht="16.5" spans="2:11">
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="17">
+        <v>180</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -2010,7 +2044,9 @@
       <c r="K8" s="17"/>
     </row>
     <row r="9" ht="16.5" spans="2:13">
-      <c r="B9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2022,7 +2058,9 @@
       <c r="M9" s="20"/>
     </row>
     <row r="10" ht="16.5" spans="2:13">
-      <c r="B10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -2465,206 +2503,206 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2732,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2777,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2824,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2871,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2918,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2965,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3012,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/Item.xlsx
+++ b/配置表/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="20827" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -409,6 +409,9 @@
     <t>Number</t>
   </si>
   <si>
+    <t>ItemId</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -421,6 +424,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -439,6 +445,9 @@
     <t>初始数量</t>
   </si>
   <si>
+    <t>物品编号</t>
+  </si>
+  <si>
     <t>Coin</t>
   </si>
   <si>
@@ -521,9 +530,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>#string</t>
@@ -1884,19 +1890,19 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="28.0181818181818" customWidth="1"/>
-    <col min="4" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="7" width="30.5363636363636" customWidth="1"/>
+    <col min="2" max="2" width="18.8141592920354" customWidth="1"/>
+    <col min="3" max="3" width="28.0176991150442" customWidth="1"/>
+    <col min="4" max="5" width="23.5044247787611" customWidth="1"/>
+    <col min="6" max="7" width="30.5398230088496" customWidth="1"/>
     <col min="8" max="8" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:11">
+    <row r="1" s="9" customFormat="1" ht="15" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1912,30 +1918,34 @@
       <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="14"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="9"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:11">
+    <row r="2" s="10" customFormat="1" ht="15" spans="1:11">
       <c r="A2" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1944,7 +1954,7 @@
     </row>
     <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="13"/>
@@ -1958,23 +1968,25 @@
       <c r="K3" s="15"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:13">
+    <row r="4" s="10" customFormat="1" ht="15" spans="1:13">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="16"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1983,95 +1995,107 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" s="11" customFormat="1" ht="16.5" spans="2:11">
+    <row r="5" s="11" customFormat="1" ht="15" spans="2:11">
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17">
         <v>1000</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" s="11" customFormat="1" ht="16.5" spans="2:11">
+    <row r="6" s="11" customFormat="1" ht="15" spans="2:11">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17">
         <v>100</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17">
+        <v>2</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:11">
+    <row r="7" s="11" customFormat="1" ht="15" spans="2:11">
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17">
+        <v>3</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:11">
+    <row r="8" s="11" customFormat="1" ht="15" spans="2:11">
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17">
         <v>180</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17">
+        <v>4</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" ht="16.5" spans="2:13">
+    <row r="9" ht="15" spans="2:13">
       <c r="B9" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>5</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" ht="16.5" spans="2:13">
+    <row r="10" ht="15" spans="2:13">
       <c r="B10" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>6</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" ht="16.5" spans="2:13">
+    <row r="11" ht="15" spans="2:13">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2083,7 +2107,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" ht="16.5" spans="2:13">
+    <row r="12" ht="15" spans="2:13">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -2095,7 +2119,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" ht="16.5" spans="2:13">
+    <row r="13" ht="15" spans="2:13">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2107,7 +2131,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" ht="16.5" spans="2:13">
+    <row r="14" ht="15" spans="2:13">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -2118,7 +2142,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" ht="16.5" spans="2:13">
+    <row r="15" ht="15" spans="2:13">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -2129,7 +2153,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" ht="16.5" spans="2:13">
+    <row r="16" ht="15" spans="2:13">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
@@ -2140,7 +2164,7 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" ht="16.5" spans="2:13">
+    <row r="17" ht="15" spans="2:13">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -2151,7 +2175,7 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" ht="16.5" spans="2:13">
+    <row r="18" ht="15" spans="2:13">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -2162,7 +2186,7 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" ht="16.5" spans="2:13">
+    <row r="19" ht="15" spans="2:13">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -2173,7 +2197,7 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" ht="16.5" spans="2:13">
+    <row r="20" ht="15" spans="2:13">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -2184,7 +2208,7 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" ht="16.5" spans="2:13">
+    <row r="21" ht="15" spans="2:13">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -2195,7 +2219,7 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" ht="16.5" spans="2:13">
+    <row r="22" ht="15" spans="2:13">
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -2206,7 +2230,7 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" ht="16.5" spans="2:13">
+    <row r="23" ht="15" spans="2:13">
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -2217,7 +2241,7 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" ht="16.5" spans="2:13">
+    <row r="24" ht="15" spans="2:13">
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -2228,7 +2252,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" ht="16.5" spans="2:13">
+    <row r="25" ht="15" spans="2:13">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
@@ -2239,7 +2263,7 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" ht="16.5" spans="2:13">
+    <row r="26" ht="15" spans="2:13">
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="17"/>
@@ -2250,7 +2274,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
     </row>
-    <row r="27" ht="16.5" spans="2:13">
+    <row r="27" ht="15" spans="2:13">
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="17"/>
@@ -2261,7 +2285,7 @@
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
     </row>
-    <row r="28" ht="16.5" spans="2:13">
+    <row r="28" ht="15" spans="2:13">
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="17"/>
@@ -2272,7 +2296,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
     </row>
-    <row r="29" ht="16.5" spans="2:13">
+    <row r="29" ht="15" spans="2:13">
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="17"/>
@@ -2283,7 +2307,7 @@
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
     </row>
-    <row r="30" ht="16.5" spans="2:13">
+    <row r="30" ht="15" spans="2:13">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -2294,7 +2318,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
     </row>
-    <row r="31" ht="16.5" spans="2:13">
+    <row r="31" ht="15" spans="2:13">
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="17"/>
@@ -2305,7 +2329,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
     </row>
-    <row r="32" ht="16.5" spans="2:13">
+    <row r="32" ht="15" spans="2:13">
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="17"/>
@@ -2316,7 +2340,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="33" ht="16.5" spans="2:13">
+    <row r="33" ht="15" spans="2:13">
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="17"/>
@@ -2327,7 +2351,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
     </row>
-    <row r="34" ht="16.5" spans="2:13">
+    <row r="34" ht="15" spans="2:13">
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="17"/>
@@ -2338,7 +2362,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
     </row>
-    <row r="35" ht="16.5" spans="2:13">
+    <row r="35" ht="15" spans="2:13">
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="17"/>
@@ -2349,7 +2373,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
     </row>
-    <row r="36" ht="16.5" spans="2:13">
+    <row r="36" ht="15" spans="2:13">
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="17"/>
@@ -2360,7 +2384,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
     </row>
-    <row r="37" ht="16.5" spans="2:13">
+    <row r="37" ht="15" spans="2:13">
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="17"/>
@@ -2371,7 +2395,7 @@
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
     </row>
-    <row r="38" ht="16.5" spans="2:13">
+    <row r="38" ht="15" spans="2:13">
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="17"/>
@@ -2382,7 +2406,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
     </row>
-    <row r="39" ht="16.5" spans="2:13">
+    <row r="39" ht="15" spans="2:13">
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="17"/>
@@ -2393,7 +2417,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
     </row>
-    <row r="40" ht="16.5" spans="2:13">
+    <row r="40" ht="15" spans="2:13">
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="17"/>
@@ -2404,7 +2428,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
     </row>
-    <row r="41" ht="16.5" spans="2:13">
+    <row r="41" ht="15" spans="2:13">
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="17"/>
@@ -2415,7 +2439,7 @@
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
     </row>
-    <row r="42" ht="16.5" spans="2:13">
+    <row r="42" ht="15" spans="2:13">
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="17"/>
@@ -2426,7 +2450,7 @@
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
     </row>
-    <row r="43" ht="16.5" spans="2:13">
+    <row r="43" ht="15" spans="2:13">
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="17"/>
@@ -2437,7 +2461,7 @@
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
     </row>
-    <row r="44" ht="16.5" spans="2:13">
+    <row r="44" ht="15" spans="2:13">
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17"/>
@@ -2448,7 +2472,7 @@
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
     </row>
-    <row r="45" ht="16.5" spans="2:13">
+    <row r="45" ht="15" spans="2:13">
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="17"/>
@@ -2459,7 +2483,7 @@
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
     </row>
-    <row r="46" ht="16.5" spans="2:13">
+    <row r="46" ht="15" spans="2:13">
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
@@ -2470,7 +2494,7 @@
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
     </row>
-    <row r="47" ht="16.5" spans="2:13">
+    <row r="47" ht="15" spans="2:13">
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -2499,213 +2523,213 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2770,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
@@ -2815,10 +2839,10 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
@@ -2862,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
@@ -2909,10 +2933,10 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
@@ -2956,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A9" s="1">
         <v>10005</v>
       </c>
@@ -3003,10 +3027,10 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:22">
       <c r="A10" s="1">
         <v>10006</v>
       </c>
@@ -3050,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/Item.xlsx
+++ b/配置表/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20827" windowHeight="11175"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -419,9 +419,6 @@
   </si>
   <si>
     <t>Sprite</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>int</t>
@@ -785,12 +782,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1890,19 +1887,19 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="18.8141592920354" customWidth="1"/>
-    <col min="3" max="3" width="28.0176991150442" customWidth="1"/>
-    <col min="4" max="5" width="23.5044247787611" customWidth="1"/>
-    <col min="6" max="7" width="30.5398230088496" customWidth="1"/>
+    <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="28.0181818181818" customWidth="1"/>
+    <col min="4" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="7" width="30.5363636363636" customWidth="1"/>
     <col min="8" max="8" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15" spans="1:11">
+    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1924,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" s="10" customFormat="1" ht="15" spans="1:11">
+    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1944,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
@@ -1954,7 +1951,7 @@
     </row>
     <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="13"/>
@@ -1968,24 +1965,24 @@
       <c r="K3" s="15"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" s="10" customFormat="1" ht="15" spans="1:13">
+    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:13">
       <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="15"/>
@@ -1995,9 +1992,9 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" s="11" customFormat="1" ht="15" spans="2:11">
+    <row r="5" s="11" customFormat="1" ht="16.5" spans="2:11">
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2012,9 +2009,9 @@
       <c r="I5" s="17"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" s="11" customFormat="1" ht="15" spans="2:11">
+    <row r="6" s="11" customFormat="1" ht="16.5" spans="2:11">
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2029,9 +2026,9 @@
       <c r="I6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" s="11" customFormat="1" ht="15" spans="2:11">
+    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:11">
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -2046,9 +2043,9 @@
       <c r="I7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" s="11" customFormat="1" ht="15" spans="2:11">
+    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:11">
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -2063,9 +2060,9 @@
       <c r="I8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" ht="15" spans="2:13">
+    <row r="9" ht="16.5" spans="2:13">
       <c r="B9" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -2079,9 +2076,9 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" ht="15" spans="2:13">
+    <row r="10" ht="16.5" spans="2:13">
       <c r="B10" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -2095,7 +2092,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" ht="15" spans="2:13">
+    <row r="11" ht="16.5" spans="2:13">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2107,7 +2104,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" ht="15" spans="2:13">
+    <row r="12" ht="16.5" spans="2:13">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -2119,7 +2116,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" ht="15" spans="2:13">
+    <row r="13" ht="16.5" spans="2:13">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2131,7 +2128,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" ht="15" spans="2:13">
+    <row r="14" ht="16.5" spans="2:13">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -2142,7 +2139,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" ht="15" spans="2:13">
+    <row r="15" ht="16.5" spans="2:13">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -2153,7 +2150,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" ht="15" spans="2:13">
+    <row r="16" ht="16.5" spans="2:13">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
@@ -2164,7 +2161,7 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" ht="15" spans="2:13">
+    <row r="17" ht="16.5" spans="2:13">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -2175,7 +2172,7 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" ht="15" spans="2:13">
+    <row r="18" ht="16.5" spans="2:13">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -2186,7 +2183,7 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" ht="15" spans="2:13">
+    <row r="19" ht="16.5" spans="2:13">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -2197,7 +2194,7 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" ht="15" spans="2:13">
+    <row r="20" ht="16.5" spans="2:13">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -2208,7 +2205,7 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" ht="15" spans="2:13">
+    <row r="21" ht="16.5" spans="2:13">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -2219,7 +2216,7 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" ht="15" spans="2:13">
+    <row r="22" ht="16.5" spans="2:13">
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -2230,7 +2227,7 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" ht="15" spans="2:13">
+    <row r="23" ht="16.5" spans="2:13">
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -2241,7 +2238,7 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" ht="15" spans="2:13">
+    <row r="24" ht="16.5" spans="2:13">
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -2252,7 +2249,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" ht="15" spans="2:13">
+    <row r="25" ht="16.5" spans="2:13">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
@@ -2263,7 +2260,7 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" ht="15" spans="2:13">
+    <row r="26" ht="16.5" spans="2:13">
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="17"/>
@@ -2274,7 +2271,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
     </row>
-    <row r="27" ht="15" spans="2:13">
+    <row r="27" ht="16.5" spans="2:13">
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="17"/>
@@ -2285,7 +2282,7 @@
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
     </row>
-    <row r="28" ht="15" spans="2:13">
+    <row r="28" ht="16.5" spans="2:13">
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="17"/>
@@ -2296,7 +2293,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
     </row>
-    <row r="29" ht="15" spans="2:13">
+    <row r="29" ht="16.5" spans="2:13">
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="17"/>
@@ -2307,7 +2304,7 @@
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
     </row>
-    <row r="30" ht="15" spans="2:13">
+    <row r="30" ht="16.5" spans="2:13">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -2318,7 +2315,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
     </row>
-    <row r="31" ht="15" spans="2:13">
+    <row r="31" ht="16.5" spans="2:13">
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="17"/>
@@ -2329,7 +2326,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
     </row>
-    <row r="32" ht="15" spans="2:13">
+    <row r="32" ht="16.5" spans="2:13">
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="17"/>
@@ -2340,7 +2337,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="33" ht="15" spans="2:13">
+    <row r="33" ht="16.5" spans="2:13">
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="17"/>
@@ -2351,7 +2348,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
     </row>
-    <row r="34" ht="15" spans="2:13">
+    <row r="34" ht="16.5" spans="2:13">
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="17"/>
@@ -2362,7 +2359,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
     </row>
-    <row r="35" ht="15" spans="2:13">
+    <row r="35" ht="16.5" spans="2:13">
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="17"/>
@@ -2373,7 +2370,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
     </row>
-    <row r="36" ht="15" spans="2:13">
+    <row r="36" ht="16.5" spans="2:13">
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="17"/>
@@ -2384,7 +2381,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
     </row>
-    <row r="37" ht="15" spans="2:13">
+    <row r="37" ht="16.5" spans="2:13">
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="17"/>
@@ -2395,7 +2392,7 @@
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
     </row>
-    <row r="38" ht="15" spans="2:13">
+    <row r="38" ht="16.5" spans="2:13">
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="17"/>
@@ -2406,7 +2403,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
     </row>
-    <row r="39" ht="15" spans="2:13">
+    <row r="39" ht="16.5" spans="2:13">
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="17"/>
@@ -2417,7 +2414,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
     </row>
-    <row r="40" ht="15" spans="2:13">
+    <row r="40" ht="16.5" spans="2:13">
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="17"/>
@@ -2428,7 +2425,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
     </row>
-    <row r="41" ht="15" spans="2:13">
+    <row r="41" ht="16.5" spans="2:13">
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="17"/>
@@ -2439,7 +2436,7 @@
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
     </row>
-    <row r="42" ht="15" spans="2:13">
+    <row r="42" ht="16.5" spans="2:13">
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="17"/>
@@ -2450,7 +2447,7 @@
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
     </row>
-    <row r="43" ht="15" spans="2:13">
+    <row r="43" ht="16.5" spans="2:13">
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="17"/>
@@ -2461,7 +2458,7 @@
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
     </row>
-    <row r="44" ht="15" spans="2:13">
+    <row r="44" ht="16.5" spans="2:13">
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="17"/>
@@ -2472,7 +2469,7 @@
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
     </row>
-    <row r="45" ht="15" spans="2:13">
+    <row r="45" ht="16.5" spans="2:13">
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="17"/>
@@ -2483,7 +2480,7 @@
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
     </row>
-    <row r="46" ht="15" spans="2:13">
+    <row r="46" ht="16.5" spans="2:13">
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
@@ -2494,7 +2491,7 @@
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
     </row>
-    <row r="47" ht="15" spans="2:13">
+    <row r="47" ht="16.5" spans="2:13">
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -2523,213 +2520,213 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" spans="1:22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2794,10 +2791,10 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" spans="1:22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
@@ -2839,10 +2836,10 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" spans="1:22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
@@ -2886,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="1:22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
@@ -2933,10 +2930,10 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="1:22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
@@ -2980,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="1:22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A9" s="1">
         <v>10005</v>
       </c>
@@ -3027,10 +3024,10 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="1:22">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A10" s="1">
         <v>10006</v>
       </c>
@@ -3074,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/Item.xlsx
+++ b/配置表/Item.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>String</t>
-  </si>
-  <si>
-    <t>Sprite</t>
   </si>
   <si>
     <t>int</t>
@@ -1395,7 +1392,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1443,13 +1440,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
@@ -1459,7 +1456,7 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="5"/>
@@ -1475,22 +1472,22 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="15" spans="1:13">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
@@ -1502,7 +1499,7 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="15" spans="2:11">
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1519,7 +1516,7 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="15" spans="2:11">
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1536,7 +1533,7 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="15" spans="2:11">
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1553,7 +1550,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="15" spans="2:11">
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1570,7 +1567,7 @@
     </row>
     <row r="9" ht="15" spans="2:13">
       <c r="B9" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1586,7 +1583,7 @@
     </row>
     <row r="10" ht="15" spans="2:13">
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1602,7 +1599,7 @@
     </row>
     <row r="11" ht="15" spans="2:13">
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>

--- a/配置表/Item.xlsx
+++ b/配置表/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20827" windowHeight="11175"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,54 +54,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
   <si>
+    <t>ItemId</t>
+  </si>
+  <si>
     <t>ItemName</t>
   </si>
   <si>
     <t>ItemDescribtion</t>
   </si>
   <si>
-    <t>ItemImage</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
-    <t>ItemId</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
     <t>##</t>
   </si>
   <si>
+    <t>物品编号</t>
+  </si>
+  <si>
     <t>物品名字</t>
   </si>
   <si>
     <t>物品描述</t>
   </si>
   <si>
-    <t>物品图片</t>
-  </si>
-  <si>
     <t>初始数量</t>
-  </si>
-  <si>
-    <t>物品编号</t>
   </si>
   <si>
     <t>Coin</t>
@@ -821,13 +815,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,10 +833,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1389,22 +1383,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="18.8141592920354" customWidth="1"/>
-    <col min="3" max="3" width="28.0176991150442" customWidth="1"/>
-    <col min="4" max="5" width="23.5044247787611" customWidth="1"/>
-    <col min="6" max="7" width="30.5398230088496" customWidth="1"/>
-    <col min="8" max="8" width="10"/>
+    <col min="2" max="2" width="30.5363636363636" customWidth="1"/>
+    <col min="3" max="3" width="18.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="28.0181818181818" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="30.5363636363636" customWidth="1"/>
+    <col min="7" max="7" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,27 +1409,24 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>7</v>
@@ -1443,587 +1435,536 @@
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:12">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="15" spans="2:11">
-      <c r="B5" s="10" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>100</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="15" spans="2:11">
-      <c r="B6" s="10" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11">
-        <v>100</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="15" spans="2:11">
-      <c r="B7" s="10" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>180</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:12">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="15" spans="2:11">
-      <c r="B8" s="10" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:12">
+      <c r="B10" s="10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11">
-        <v>180</v>
-      </c>
-      <c r="F8" s="11">
-        <v>4</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" ht="15" spans="2:13">
-      <c r="B9" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:12">
+      <c r="B11" s="10">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" ht="15" spans="2:13">
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
-        <v>6</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" ht="15" spans="2:13">
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
-        <v>7</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" ht="15" spans="2:13">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:12">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" ht="15" spans="2:13">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:12">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" ht="15" spans="2:13">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:12">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" ht="15" spans="2:13">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:12">
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" ht="15" spans="2:13">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:12">
+      <c r="B16" s="12"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" ht="15" spans="2:13">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:12">
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" ht="15" spans="2:13">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:12">
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" ht="15" spans="2:13">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:12">
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" ht="15" spans="2:13">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:12">
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" ht="15" spans="2:13">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:12">
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" ht="15" spans="2:13">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:12">
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" ht="15" spans="2:13">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:12">
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" ht="15" spans="2:13">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:12">
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" ht="15" spans="2:13">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:12">
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" ht="15" spans="2:13">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:12">
+      <c r="B26" s="12"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" ht="15" spans="2:13">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:12">
+      <c r="B27" s="12"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-    </row>
-    <row r="28" ht="15" spans="2:13">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:12">
+      <c r="B28" s="12"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-    </row>
-    <row r="29" ht="15" spans="2:13">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:12">
+      <c r="B29" s="12"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-    </row>
-    <row r="30" ht="15" spans="2:13">
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:12">
+      <c r="B30" s="12"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-    </row>
-    <row r="31" ht="15" spans="2:13">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:12">
+      <c r="B31" s="12"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" ht="15" spans="2:13">
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:12">
+      <c r="B32" s="12"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" ht="15" spans="2:13">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:12">
+      <c r="B33" s="12"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" ht="15" spans="2:13">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:12">
+      <c r="B34" s="12"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" ht="15" spans="2:13">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:12">
+      <c r="B35" s="12"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" ht="15" spans="2:13">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:12">
+      <c r="B36" s="12"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-    </row>
-    <row r="37" ht="15" spans="2:13">
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:12">
+      <c r="B37" s="12"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="K37" s="14"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-    </row>
-    <row r="38" ht="15" spans="2:13">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:12">
+      <c r="B38" s="12"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="K38" s="14"/>
       <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" ht="15" spans="2:13">
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:12">
+      <c r="B39" s="12"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" ht="15" spans="2:13">
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:12">
+      <c r="B40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="K40" s="14"/>
       <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-    </row>
-    <row r="41" ht="15" spans="2:13">
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:12">
+      <c r="B41" s="12"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" ht="15" spans="2:13">
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:12">
+      <c r="B42" s="12"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="K42" s="14"/>
       <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" ht="15" spans="2:13">
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+    </row>
+    <row r="43" ht="16.5" spans="2:12">
+      <c r="B43" s="12"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="10"/>
+      <c r="K43" s="14"/>
       <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" ht="15" spans="2:13">
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+    </row>
+    <row r="44" ht="16.5" spans="2:12">
+      <c r="B44" s="12"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="11"/>
+      <c r="G44" s="10"/>
+      <c r="K44" s="14"/>
       <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" ht="15" spans="2:13">
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+    </row>
+    <row r="45" ht="16.5" spans="2:12">
+      <c r="B45" s="12"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="11"/>
+      <c r="G45" s="10"/>
+      <c r="K45" s="14"/>
       <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" ht="15" spans="2:13">
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+    </row>
+    <row r="46" ht="16.5" spans="2:12">
+      <c r="B46" s="12"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="11"/>
+      <c r="G46" s="10"/>
+      <c r="K46" s="14"/>
       <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" ht="15" spans="2:13">
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+    </row>
+    <row r="47" ht="16.5" spans="2:12">
+      <c r="B47" s="12"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="11"/>
+      <c r="G47" s="10"/>
+      <c r="K47" s="14"/>
       <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" ht="15" spans="2:13">
+    </row>
+    <row r="48" ht="16.5" spans="2:12">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="K48" s="14"/>
       <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H7 H11">
+  <conditionalFormatting sqref="G7 G11">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/配置表/Item.xlsx
+++ b/配置表/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="20827" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Money</t>
-  </si>
-  <si>
-    <t>Energy</t>
   </si>
   <si>
     <t>Other</t>
@@ -1383,23 +1380,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="30.5363636363636" customWidth="1"/>
-    <col min="3" max="3" width="18.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="28.0181818181818" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="30.5363636363636" customWidth="1"/>
+    <col min="2" max="2" width="30.5398230088496" customWidth="1"/>
+    <col min="3" max="3" width="18.8141592920354" customWidth="1"/>
+    <col min="4" max="4" width="28.0176991150442" customWidth="1"/>
+    <col min="5" max="5" width="23.5044247787611" customWidth="1"/>
+    <col min="6" max="6" width="30.5398230088496" customWidth="1"/>
     <col min="7" max="7" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1418,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:10">
+    <row r="2" s="2" customFormat="1" ht="15" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1455,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="16.5" spans="1:12">
+    <row r="4" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1479,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="16.5" spans="2:10">
+    <row r="5" s="3" customFormat="1" ht="15" spans="2:10">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -1498,7 +1495,7 @@
       <c r="H5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="16.5" spans="2:10">
+    <row r="6" s="3" customFormat="1" ht="15" spans="2:10">
       <c r="B6" s="10">
         <v>2</v>
       </c>
@@ -1514,7 +1511,7 @@
       <c r="H6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="16.5" spans="2:10">
+    <row r="7" s="3" customFormat="1" ht="15" spans="2:10">
       <c r="B7" s="10">
         <v>3</v>
       </c>
@@ -1530,7 +1527,7 @@
       <c r="H7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="16.5" spans="2:10">
+    <row r="8" s="3" customFormat="1" ht="15" spans="2:10">
       <c r="B8" s="10">
         <v>4</v>
       </c>
@@ -1546,7 +1543,7 @@
       <c r="H8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" ht="16.5" spans="2:12">
+    <row r="9" ht="15" spans="2:12">
       <c r="B9" s="10">
         <v>5</v>
       </c>
@@ -1561,7 +1558,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="2:12">
+    <row r="10" ht="15" spans="2:12">
       <c r="B10" s="10">
         <v>6</v>
       </c>
@@ -1576,13 +1573,9 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" ht="16.5" spans="2:12">
-      <c r="B11" s="10">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
+    <row r="11" ht="15" spans="2:12">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1591,7 +1584,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" ht="16.5" spans="2:12">
+    <row r="12" ht="15" spans="2:12">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1602,7 +1595,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" ht="16.5" spans="2:12">
+    <row r="13" ht="15" spans="2:12">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1613,18 +1606,17 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" ht="16.5" spans="2:12">
-      <c r="B14" s="10"/>
+    <row r="14" ht="15" spans="2:12">
+      <c r="B14" s="12"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" ht="16.5" spans="2:12">
+    <row r="15" ht="15" spans="2:12">
       <c r="B15" s="12"/>
       <c r="C15" s="10"/>
       <c r="D15" s="12"/>
@@ -1634,7 +1626,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" ht="16.5" spans="2:12">
+    <row r="16" ht="15" spans="2:12">
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>
       <c r="D16" s="12"/>
@@ -1644,7 +1636,7 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" ht="16.5" spans="2:12">
+    <row r="17" ht="15" spans="2:12">
       <c r="B17" s="12"/>
       <c r="C17" s="10"/>
       <c r="D17" s="12"/>
@@ -1654,7 +1646,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" ht="16.5" spans="2:12">
+    <row r="18" ht="15" spans="2:12">
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
       <c r="D18" s="12"/>
@@ -1664,7 +1656,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" ht="16.5" spans="2:12">
+    <row r="19" ht="15" spans="2:12">
       <c r="B19" s="12"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
@@ -1674,7 +1666,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" ht="16.5" spans="2:12">
+    <row r="20" ht="15" spans="2:12">
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
       <c r="D20" s="12"/>
@@ -1684,7 +1676,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" ht="16.5" spans="2:12">
+    <row r="21" ht="15" spans="2:12">
       <c r="B21" s="12"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
@@ -1694,7 +1686,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" ht="16.5" spans="2:12">
+    <row r="22" ht="15" spans="2:12">
       <c r="B22" s="12"/>
       <c r="C22" s="10"/>
       <c r="D22" s="12"/>
@@ -1704,7 +1696,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" ht="16.5" spans="2:12">
+    <row r="23" ht="15" spans="2:12">
       <c r="B23" s="12"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
@@ -1714,7 +1706,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" ht="16.5" spans="2:12">
+    <row r="24" ht="15" spans="2:12">
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
@@ -1724,7 +1716,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" ht="16.5" spans="2:12">
+    <row r="25" ht="15" spans="2:12">
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
@@ -1734,7 +1726,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" ht="16.5" spans="2:12">
+    <row r="26" ht="15" spans="2:12">
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
       <c r="D26" s="12"/>
@@ -1744,7 +1736,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" ht="16.5" spans="2:12">
+    <row r="27" ht="15" spans="2:12">
       <c r="B27" s="12"/>
       <c r="C27" s="10"/>
       <c r="D27" s="12"/>
@@ -1754,7 +1746,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" ht="16.5" spans="2:12">
+    <row r="28" ht="15" spans="2:12">
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
       <c r="D28" s="12"/>
@@ -1764,7 +1756,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" ht="16.5" spans="2:12">
+    <row r="29" ht="15" spans="2:12">
       <c r="B29" s="12"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
@@ -1774,7 +1766,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" ht="16.5" spans="2:12">
+    <row r="30" ht="15" spans="2:12">
       <c r="B30" s="12"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
@@ -1784,7 +1776,7 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" ht="16.5" spans="2:12">
+    <row r="31" ht="15" spans="2:12">
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
       <c r="D31" s="12"/>
@@ -1794,7 +1786,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" ht="16.5" spans="2:12">
+    <row r="32" ht="15" spans="2:12">
       <c r="B32" s="12"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
@@ -1804,7 +1796,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" ht="16.5" spans="2:12">
+    <row r="33" ht="15" spans="2:12">
       <c r="B33" s="12"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
@@ -1814,7 +1806,7 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" ht="16.5" spans="2:12">
+    <row r="34" ht="15" spans="2:12">
       <c r="B34" s="12"/>
       <c r="C34" s="10"/>
       <c r="D34" s="12"/>
@@ -1824,7 +1816,7 @@
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" ht="16.5" spans="2:12">
+    <row r="35" ht="15" spans="2:12">
       <c r="B35" s="12"/>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
@@ -1834,7 +1826,7 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" ht="16.5" spans="2:12">
+    <row r="36" ht="15" spans="2:12">
       <c r="B36" s="12"/>
       <c r="C36" s="10"/>
       <c r="D36" s="12"/>
@@ -1844,7 +1836,7 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" ht="16.5" spans="2:12">
+    <row r="37" ht="15" spans="2:12">
       <c r="B37" s="12"/>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
@@ -1854,7 +1846,7 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" ht="16.5" spans="2:12">
+    <row r="38" ht="15" spans="2:12">
       <c r="B38" s="12"/>
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
@@ -1864,7 +1856,7 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" ht="16.5" spans="2:12">
+    <row r="39" ht="15" spans="2:12">
       <c r="B39" s="12"/>
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
@@ -1874,7 +1866,7 @@
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" ht="16.5" spans="2:12">
+    <row r="40" ht="15" spans="2:12">
       <c r="B40" s="12"/>
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
@@ -1884,7 +1876,7 @@
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" ht="16.5" spans="2:12">
+    <row r="41" ht="15" spans="2:12">
       <c r="B41" s="12"/>
       <c r="C41" s="10"/>
       <c r="D41" s="12"/>
@@ -1894,7 +1886,7 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" ht="16.5" spans="2:12">
+    <row r="42" ht="15" spans="2:12">
       <c r="B42" s="12"/>
       <c r="C42" s="10"/>
       <c r="D42" s="12"/>
@@ -1904,7 +1896,7 @@
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" ht="16.5" spans="2:12">
+    <row r="43" ht="15" spans="2:12">
       <c r="B43" s="12"/>
       <c r="C43" s="10"/>
       <c r="D43" s="12"/>
@@ -1914,7 +1906,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" ht="16.5" spans="2:12">
+    <row r="44" ht="15" spans="2:12">
       <c r="B44" s="12"/>
       <c r="C44" s="10"/>
       <c r="D44" s="12"/>
@@ -1924,7 +1916,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" ht="16.5" spans="2:12">
+    <row r="45" ht="15" spans="2:12">
       <c r="B45" s="12"/>
       <c r="C45" s="10"/>
       <c r="D45" s="12"/>
@@ -1934,7 +1926,7 @@
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" ht="16.5" spans="2:12">
+    <row r="46" ht="15" spans="2:12">
       <c r="B46" s="12"/>
       <c r="C46" s="10"/>
       <c r="D46" s="12"/>
@@ -1944,27 +1936,17 @@
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" ht="16.5" spans="2:12">
+    <row r="47" ht="15" spans="2:12">
       <c r="B47" s="12"/>
-      <c r="C47" s="10"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="10"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="10"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" ht="16.5" spans="2:12">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="12"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G7 G11">
+  <conditionalFormatting sqref="G7 G10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
